--- a/stock_historical_data/1wk/LIKHITHA.NS.xlsx
+++ b/stock_historical_data/1wk/LIKHITHA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q193"/>
+  <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2694,7 +2819,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3277,7 +3435,10 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>2</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>1</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>2</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>1</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>2</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>1</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>2</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>1</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>2</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>2</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>2</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8208,6 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8261,6 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8314,6 +8757,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8367,6 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8420,6 +8869,9 @@
       <c r="Q150" t="n">
         <v>1</v>
       </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8473,6 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8526,6 +8981,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8579,6 +9037,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8632,6 +9093,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8685,6 +9149,9 @@
       <c r="Q155" t="n">
         <v>2</v>
       </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8738,6 +9205,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8791,6 +9261,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8844,6 +9317,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8897,6 +9373,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8950,6 +9429,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9003,6 +9485,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9056,6 +9541,9 @@
       <c r="Q162" t="n">
         <v>2</v>
       </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9109,6 +9597,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9162,6 +9653,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9215,6 +9709,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9268,6 +9765,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9321,6 +9821,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9374,6 +9877,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9427,6 +9933,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9480,6 +9989,9 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9533,6 +10045,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9586,6 +10101,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9639,6 +10157,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9692,6 +10213,9 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9745,6 +10269,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9798,6 +10325,9 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9851,6 +10381,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9904,6 +10437,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9957,6 +10493,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10010,6 +10549,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10063,6 +10605,9 @@
       <c r="Q181" t="n">
         <v>2</v>
       </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10116,6 +10661,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -10169,6 +10717,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -10222,6 +10773,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10275,6 +10829,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10328,6 +10885,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10381,6 +10941,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10434,6 +10997,9 @@
       <c r="Q188" t="n">
         <v>1</v>
       </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -10487,6 +11053,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -10540,6 +11109,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10593,6 +11165,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10646,6 +11221,9 @@
       <c r="Q192" t="n">
         <v>0</v>
       </c>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10699,6 +11277,117 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B194" t="n">
+        <v>436.4500122070312</v>
+      </c>
+      <c r="C194" t="n">
+        <v>451.6000061035156</v>
+      </c>
+      <c r="D194" t="n">
+        <v>421.6499938964844</v>
+      </c>
+      <c r="E194" t="n">
+        <v>427.7000122070312</v>
+      </c>
+      <c r="F194" t="n">
+        <v>427.7000122070312</v>
+      </c>
+      <c r="G194" t="n">
+        <v>741740</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I194" t="n">
+        <v>6</v>
+      </c>
+      <c r="J194" t="n">
+        <v>17</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>25</v>
+      </c>
+      <c r="O194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B195" t="n">
+        <v>430.8999938964844</v>
+      </c>
+      <c r="C195" t="n">
+        <v>497.4500122070312</v>
+      </c>
+      <c r="D195" t="n">
+        <v>430</v>
+      </c>
+      <c r="E195" t="n">
+        <v>457.2000122070312</v>
+      </c>
+      <c r="F195" t="n">
+        <v>457.2000122070312</v>
+      </c>
+      <c r="G195" t="n">
+        <v>4402582</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I195" t="n">
+        <v>6</v>
+      </c>
+      <c r="J195" t="n">
+        <v>24</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>26</v>
+      </c>
+      <c r="O195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>0</v>
+      </c>
+      <c r="R195" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/LIKHITHA.NS.xlsx
+++ b/stock_historical_data/1wk/LIKHITHA.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R195"/>
+  <dimension ref="A1:R230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -11213,7 +11213,7 @@
         <v>23</v>
       </c>
       <c r="O192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P192" t="n">
         <v>0</v>
@@ -11333,7 +11333,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
-      <c r="R194" t="inlineStr"/>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -11379,7 +11381,7 @@
         <v>26</v>
       </c>
       <c r="O195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P195" t="n">
         <v>0</v>
@@ -11387,7 +11389,1829 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
-      <c r="R195" t="inlineStr"/>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B196" t="n">
+        <v>457.3205100835643</v>
+      </c>
+      <c r="C196" t="n">
+        <v>480.186547750108</v>
+      </c>
+      <c r="D196" t="n">
+        <v>446.858929787535</v>
+      </c>
+      <c r="E196" t="n">
+        <v>452.6376953125</v>
+      </c>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="n">
+        <v>1186910</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I196" t="n">
+        <v>7</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>27</v>
+      </c>
+      <c r="O196" t="n">
+        <v>0</v>
+      </c>
+      <c r="P196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>0</v>
+      </c>
+      <c r="R196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B197" t="n">
+        <v>455.2281807001648</v>
+      </c>
+      <c r="C197" t="n">
+        <v>492.1924365725228</v>
+      </c>
+      <c r="D197" t="n">
+        <v>440.382706406994</v>
+      </c>
+      <c r="E197" t="n">
+        <v>454.9790954589844</v>
+      </c>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="n">
+        <v>2461810</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I197" t="n">
+        <v>7</v>
+      </c>
+      <c r="J197" t="n">
+        <v>8</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>28</v>
+      </c>
+      <c r="O197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B198" t="n">
+        <v>457.5696143483294</v>
+      </c>
+      <c r="C198" t="n">
+        <v>466.4868786574946</v>
+      </c>
+      <c r="D198" t="n">
+        <v>423.5943794173303</v>
+      </c>
+      <c r="E198" t="n">
+        <v>427.2310180664062</v>
+      </c>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>718528</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I198" t="n">
+        <v>7</v>
+      </c>
+      <c r="J198" t="n">
+        <v>15</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>29</v>
+      </c>
+      <c r="O198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>1</v>
+      </c>
+      <c r="R198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B199" t="n">
+        <v>421.7511343917475</v>
+      </c>
+      <c r="C199" t="n">
+        <v>452.0399252065452</v>
+      </c>
+      <c r="D199" t="n">
+        <v>403.5679110876781</v>
+      </c>
+      <c r="E199" t="n">
+        <v>429.871337890625</v>
+      </c>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="n">
+        <v>1136282</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I199" t="n">
+        <v>7</v>
+      </c>
+      <c r="J199" t="n">
+        <v>22</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>30</v>
+      </c>
+      <c r="O199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B200" t="n">
+        <v>434.7035570781059</v>
+      </c>
+      <c r="C200" t="n">
+        <v>463.9960061923621</v>
+      </c>
+      <c r="D200" t="n">
+        <v>428.4266210712874</v>
+      </c>
+      <c r="E200" t="n">
+        <v>433.1592407226562</v>
+      </c>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="n">
+        <v>1213142</v>
+      </c>
+      <c r="H200" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I200" t="n">
+        <v>7</v>
+      </c>
+      <c r="J200" t="n">
+        <v>29</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>31</v>
+      </c>
+      <c r="O200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B201" t="n">
+        <v>398.5363899353527</v>
+      </c>
+      <c r="C201" t="n">
+        <v>424.3416151024841</v>
+      </c>
+      <c r="D201" t="n">
+        <v>395.5473670108375</v>
+      </c>
+      <c r="E201" t="n">
+        <v>404.2155456542969</v>
+      </c>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="n">
+        <v>948136</v>
+      </c>
+      <c r="H201" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I201" t="n">
+        <v>8</v>
+      </c>
+      <c r="J201" t="n">
+        <v>5</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>32</v>
+      </c>
+      <c r="O201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>2</v>
+      </c>
+      <c r="R201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B202" t="n">
+        <v>391.611828220122</v>
+      </c>
+      <c r="C202" t="n">
+        <v>399.4331113576657</v>
+      </c>
+      <c r="D202" t="n">
+        <v>374.1758602600825</v>
+      </c>
+      <c r="E202" t="n">
+        <v>378.1612243652344</v>
+      </c>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="n">
+        <v>729145</v>
+      </c>
+      <c r="H202" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I202" t="n">
+        <v>8</v>
+      </c>
+      <c r="J202" t="n">
+        <v>12</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>33</v>
+      </c>
+      <c r="O202" t="n">
+        <v>2</v>
+      </c>
+      <c r="P202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>0</v>
+      </c>
+      <c r="R202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B203" t="n">
+        <v>379.5561171654175</v>
+      </c>
+      <c r="C203" t="n">
+        <v>433.3086960210017</v>
+      </c>
+      <c r="D203" t="n">
+        <v>379.5561171654175</v>
+      </c>
+      <c r="E203" t="n">
+        <v>420.107177734375</v>
+      </c>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="n">
+        <v>1491430</v>
+      </c>
+      <c r="H203" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I203" t="n">
+        <v>8</v>
+      </c>
+      <c r="J203" t="n">
+        <v>19</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>34</v>
+      </c>
+      <c r="O203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B204" t="n">
+        <v>422.3489448554295</v>
+      </c>
+      <c r="C204" t="n">
+        <v>450.3461331053286</v>
+      </c>
+      <c r="D204" t="n">
+        <v>419.6090070987046</v>
+      </c>
+      <c r="E204" t="n">
+        <v>439.6852722167969</v>
+      </c>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="n">
+        <v>1161863</v>
+      </c>
+      <c r="H204" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I204" t="n">
+        <v>8</v>
+      </c>
+      <c r="J204" t="n">
+        <v>26</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>35</v>
+      </c>
+      <c r="O204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>0</v>
+      </c>
+      <c r="R204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B205" t="n">
+        <v>440.8809011229744</v>
+      </c>
+      <c r="C205" t="n">
+        <v>447.0582276061594</v>
+      </c>
+      <c r="D205" t="n">
+        <v>414.1291386685668</v>
+      </c>
+      <c r="E205" t="n">
+        <v>427.5797424316406</v>
+      </c>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="n">
+        <v>587158</v>
+      </c>
+      <c r="H205" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I205" t="n">
+        <v>9</v>
+      </c>
+      <c r="J205" t="n">
+        <v>2</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>36</v>
+      </c>
+      <c r="O205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B206" t="n">
+        <v>422.4485868028299</v>
+      </c>
+      <c r="C206" t="n">
+        <v>427.4302918358821</v>
+      </c>
+      <c r="D206" t="n">
+        <v>401.8741510975071</v>
+      </c>
+      <c r="E206" t="n">
+        <v>409.8448791503906</v>
+      </c>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="n">
+        <v>440918</v>
+      </c>
+      <c r="H206" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I206" t="n">
+        <v>9</v>
+      </c>
+      <c r="J206" t="n">
+        <v>9</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>37</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B207" t="n">
+        <v>414.2287541579462</v>
+      </c>
+      <c r="C207" t="n">
+        <v>414.2287541579462</v>
+      </c>
+      <c r="D207" t="n">
+        <v>374.2256706914642</v>
+      </c>
+      <c r="E207" t="n">
+        <v>386.3312072753906</v>
+      </c>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="n">
+        <v>559946</v>
+      </c>
+      <c r="H207" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I207" t="n">
+        <v>9</v>
+      </c>
+      <c r="J207" t="n">
+        <v>16</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>38</v>
+      </c>
+      <c r="O207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B208" t="n">
+        <v>389</v>
+      </c>
+      <c r="C208" t="n">
+        <v>401.7999877929688</v>
+      </c>
+      <c r="D208" t="n">
+        <v>379</v>
+      </c>
+      <c r="E208" t="n">
+        <v>387.2000122070312</v>
+      </c>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="n">
+        <v>409379</v>
+      </c>
+      <c r="H208" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I208" t="n">
+        <v>9</v>
+      </c>
+      <c r="J208" t="n">
+        <v>23</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>39</v>
+      </c>
+      <c r="O208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>1</v>
+      </c>
+      <c r="R208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B209" t="n">
+        <v>387.8999938964844</v>
+      </c>
+      <c r="C209" t="n">
+        <v>397</v>
+      </c>
+      <c r="D209" t="n">
+        <v>364.7999877929688</v>
+      </c>
+      <c r="E209" t="n">
+        <v>384.5</v>
+      </c>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="n">
+        <v>526304</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I209" t="n">
+        <v>9</v>
+      </c>
+      <c r="J209" t="n">
+        <v>30</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>40</v>
+      </c>
+      <c r="O209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B210" t="n">
+        <v>382</v>
+      </c>
+      <c r="C210" t="n">
+        <v>390.2000122070312</v>
+      </c>
+      <c r="D210" t="n">
+        <v>365</v>
+      </c>
+      <c r="E210" t="n">
+        <v>376.9500122070312</v>
+      </c>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="n">
+        <v>409748</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I210" t="n">
+        <v>10</v>
+      </c>
+      <c r="J210" t="n">
+        <v>7</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>41</v>
+      </c>
+      <c r="O210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B211" t="n">
+        <v>380.7000122070312</v>
+      </c>
+      <c r="C211" t="n">
+        <v>391.7999877929688</v>
+      </c>
+      <c r="D211" t="n">
+        <v>363.9500122070312</v>
+      </c>
+      <c r="E211" t="n">
+        <v>370.8500061035156</v>
+      </c>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="n">
+        <v>366946</v>
+      </c>
+      <c r="H211" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I211" t="n">
+        <v>10</v>
+      </c>
+      <c r="J211" t="n">
+        <v>14</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>42</v>
+      </c>
+      <c r="O211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B212" t="n">
+        <v>372.6499938964844</v>
+      </c>
+      <c r="C212" t="n">
+        <v>375.9500122070312</v>
+      </c>
+      <c r="D212" t="n">
+        <v>340.0499877929688</v>
+      </c>
+      <c r="E212" t="n">
+        <v>341.7999877929688</v>
+      </c>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="n">
+        <v>330433</v>
+      </c>
+      <c r="H212" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I212" t="n">
+        <v>10</v>
+      </c>
+      <c r="J212" t="n">
+        <v>21</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N212" t="n">
+        <v>43</v>
+      </c>
+      <c r="O212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B213" t="n">
+        <v>341</v>
+      </c>
+      <c r="C213" t="n">
+        <v>375</v>
+      </c>
+      <c r="D213" t="n">
+        <v>338</v>
+      </c>
+      <c r="E213" t="n">
+        <v>374.3500061035156</v>
+      </c>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="n">
+        <v>248958</v>
+      </c>
+      <c r="H213" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I213" t="n">
+        <v>10</v>
+      </c>
+      <c r="J213" t="n">
+        <v>28</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>44</v>
+      </c>
+      <c r="O213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B214" t="n">
+        <v>375</v>
+      </c>
+      <c r="C214" t="n">
+        <v>381.75</v>
+      </c>
+      <c r="D214" t="n">
+        <v>359</v>
+      </c>
+      <c r="E214" t="n">
+        <v>367.4500122070312</v>
+      </c>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="n">
+        <v>208750</v>
+      </c>
+      <c r="H214" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I214" t="n">
+        <v>11</v>
+      </c>
+      <c r="J214" t="n">
+        <v>4</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>45</v>
+      </c>
+      <c r="O214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B215" t="n">
+        <v>365</v>
+      </c>
+      <c r="C215" t="n">
+        <v>370.2000122070312</v>
+      </c>
+      <c r="D215" t="n">
+        <v>336.2000122070312</v>
+      </c>
+      <c r="E215" t="n">
+        <v>338.25</v>
+      </c>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="n">
+        <v>222287</v>
+      </c>
+      <c r="H215" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I215" t="n">
+        <v>11</v>
+      </c>
+      <c r="J215" t="n">
+        <v>11</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
+        <v>46</v>
+      </c>
+      <c r="O215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>0</v>
+      </c>
+      <c r="R215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B216" t="n">
+        <v>339.9500122070312</v>
+      </c>
+      <c r="C216" t="n">
+        <v>354.3500061035156</v>
+      </c>
+      <c r="D216" t="n">
+        <v>331.0499877929688</v>
+      </c>
+      <c r="E216" t="n">
+        <v>343.1499938964844</v>
+      </c>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="n">
+        <v>234460</v>
+      </c>
+      <c r="H216" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I216" t="n">
+        <v>11</v>
+      </c>
+      <c r="J216" t="n">
+        <v>18</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>47</v>
+      </c>
+      <c r="O216" t="n">
+        <v>2</v>
+      </c>
+      <c r="P216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B217" t="n">
+        <v>350</v>
+      </c>
+      <c r="C217" t="n">
+        <v>367.4500122070312</v>
+      </c>
+      <c r="D217" t="n">
+        <v>345</v>
+      </c>
+      <c r="E217" t="n">
+        <v>361.1499938964844</v>
+      </c>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="n">
+        <v>250573</v>
+      </c>
+      <c r="H217" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I217" t="n">
+        <v>11</v>
+      </c>
+      <c r="J217" t="n">
+        <v>25</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>48</v>
+      </c>
+      <c r="O217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B218" t="n">
+        <v>360</v>
+      </c>
+      <c r="C218" t="n">
+        <v>404.2999877929688</v>
+      </c>
+      <c r="D218" t="n">
+        <v>352</v>
+      </c>
+      <c r="E218" t="n">
+        <v>400.7000122070312</v>
+      </c>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="n">
+        <v>1494011</v>
+      </c>
+      <c r="H218" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I218" t="n">
+        <v>12</v>
+      </c>
+      <c r="J218" t="n">
+        <v>2</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>49</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1</v>
+      </c>
+      <c r="P218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B219" t="n">
+        <v>399.0499877929688</v>
+      </c>
+      <c r="C219" t="n">
+        <v>403</v>
+      </c>
+      <c r="D219" t="n">
+        <v>382.0499877929688</v>
+      </c>
+      <c r="E219" t="n">
+        <v>388.6499938964844</v>
+      </c>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="n">
+        <v>584801</v>
+      </c>
+      <c r="H219" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I219" t="n">
+        <v>12</v>
+      </c>
+      <c r="J219" t="n">
+        <v>9</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>50</v>
+      </c>
+      <c r="O219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B220" t="n">
+        <v>389.4500122070312</v>
+      </c>
+      <c r="C220" t="n">
+        <v>395.3999938964844</v>
+      </c>
+      <c r="D220" t="n">
+        <v>351.1000061035156</v>
+      </c>
+      <c r="E220" t="n">
+        <v>352.5499877929688</v>
+      </c>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="n">
+        <v>359284</v>
+      </c>
+      <c r="H220" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I220" t="n">
+        <v>12</v>
+      </c>
+      <c r="J220" t="n">
+        <v>16</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>51</v>
+      </c>
+      <c r="O220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B221" t="n">
+        <v>353.5</v>
+      </c>
+      <c r="C221" t="n">
+        <v>359.5</v>
+      </c>
+      <c r="D221" t="n">
+        <v>346.0499877929688</v>
+      </c>
+      <c r="E221" t="n">
+        <v>355.2000122070312</v>
+      </c>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="n">
+        <v>170462</v>
+      </c>
+      <c r="H221" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I221" t="n">
+        <v>12</v>
+      </c>
+      <c r="J221" t="n">
+        <v>23</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>52</v>
+      </c>
+      <c r="O221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B222" t="n">
+        <v>356.1000061035156</v>
+      </c>
+      <c r="C222" t="n">
+        <v>371.6499938964844</v>
+      </c>
+      <c r="D222" t="n">
+        <v>345.0499877929688</v>
+      </c>
+      <c r="E222" t="n">
+        <v>358.6000061035156</v>
+      </c>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="n">
+        <v>181418</v>
+      </c>
+      <c r="H222" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I222" t="n">
+        <v>12</v>
+      </c>
+      <c r="J222" t="n">
+        <v>30</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+      <c r="O222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>1</v>
+      </c>
+      <c r="R222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B223" t="n">
+        <v>362.3999938964844</v>
+      </c>
+      <c r="C223" t="n">
+        <v>362.4500122070312</v>
+      </c>
+      <c r="D223" t="n">
+        <v>321.8500061035156</v>
+      </c>
+      <c r="E223" t="n">
+        <v>339</v>
+      </c>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="n">
+        <v>300535</v>
+      </c>
+      <c r="H223" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>6</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>2</v>
+      </c>
+      <c r="O223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B224" t="n">
+        <v>333.8999938964844</v>
+      </c>
+      <c r="C224" t="n">
+        <v>352.7000122070312</v>
+      </c>
+      <c r="D224" t="n">
+        <v>315</v>
+      </c>
+      <c r="E224" t="n">
+        <v>339.9500122070312</v>
+      </c>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="n">
+        <v>359888</v>
+      </c>
+      <c r="H224" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>13</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>3</v>
+      </c>
+      <c r="O224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>2</v>
+      </c>
+      <c r="R224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B225" t="n">
+        <v>343.3500061035156</v>
+      </c>
+      <c r="C225" t="n">
+        <v>343.3500061035156</v>
+      </c>
+      <c r="D225" t="n">
+        <v>316.4500122070312</v>
+      </c>
+      <c r="E225" t="n">
+        <v>318.1499938964844</v>
+      </c>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="n">
+        <v>188979</v>
+      </c>
+      <c r="H225" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>20</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>4</v>
+      </c>
+      <c r="O225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B226" t="n">
+        <v>315.9500122070312</v>
+      </c>
+      <c r="C226" t="n">
+        <v>323</v>
+      </c>
+      <c r="D226" t="n">
+        <v>294</v>
+      </c>
+      <c r="E226" t="n">
+        <v>319.1499938964844</v>
+      </c>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="n">
+        <v>427270</v>
+      </c>
+      <c r="H226" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>27</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>5</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B227" t="n">
+        <v>308.6499938964844</v>
+      </c>
+      <c r="C227" t="n">
+        <v>324.2999877929688</v>
+      </c>
+      <c r="D227" t="n">
+        <v>299</v>
+      </c>
+      <c r="E227" t="n">
+        <v>308.1000061035156</v>
+      </c>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="n">
+        <v>217409</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I227" t="n">
+        <v>2</v>
+      </c>
+      <c r="J227" t="n">
+        <v>3</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>6</v>
+      </c>
+      <c r="O227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B228" t="n">
+        <v>304</v>
+      </c>
+      <c r="C228" t="n">
+        <v>308.1000061035156</v>
+      </c>
+      <c r="D228" t="n">
+        <v>265.1000061035156</v>
+      </c>
+      <c r="E228" t="n">
+        <v>268.5499877929688</v>
+      </c>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="n">
+        <v>362869</v>
+      </c>
+      <c r="H228" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I228" t="n">
+        <v>2</v>
+      </c>
+      <c r="J228" t="n">
+        <v>10</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>7</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B229" t="n">
+        <v>265.1000061035156</v>
+      </c>
+      <c r="C229" t="n">
+        <v>282.9500122070312</v>
+      </c>
+      <c r="D229" t="n">
+        <v>247</v>
+      </c>
+      <c r="E229" t="n">
+        <v>269.4500122070312</v>
+      </c>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="n">
+        <v>306926</v>
+      </c>
+      <c r="H229" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I229" t="n">
+        <v>2</v>
+      </c>
+      <c r="J229" t="n">
+        <v>17</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>8</v>
+      </c>
+      <c r="O229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B230" t="n">
+        <v>265.1000061035156</v>
+      </c>
+      <c r="C230" t="n">
+        <v>269.3999938964844</v>
+      </c>
+      <c r="D230" t="n">
+        <v>250</v>
+      </c>
+      <c r="E230" t="n">
+        <v>252.5</v>
+      </c>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="n">
+        <v>233168</v>
+      </c>
+      <c r="H230" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I230" t="n">
+        <v>2</v>
+      </c>
+      <c r="J230" t="n">
+        <v>24</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>9</v>
+      </c>
+      <c r="O230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R230" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/LIKHITHA.NS.xlsx
+++ b/stock_historical_data/1wk/LIKHITHA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R230"/>
+  <dimension ref="A1:R239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11443,7 +11443,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
-      <c r="R196" t="inlineStr"/>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -11495,7 +11497,9 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -11547,7 +11551,9 @@
       <c r="Q198" t="n">
         <v>1</v>
       </c>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -11599,7 +11605,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
-      <c r="R199" t="inlineStr"/>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11651,7 +11659,9 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
-      <c r="R200" t="inlineStr"/>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -11703,7 +11713,9 @@
       <c r="Q201" t="n">
         <v>2</v>
       </c>
-      <c r="R201" t="inlineStr"/>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -11755,7 +11767,9 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
-      <c r="R202" t="inlineStr"/>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -11807,7 +11821,9 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
-      <c r="R203" t="inlineStr"/>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -11859,7 +11875,9 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
-      <c r="R204" t="inlineStr"/>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -11911,7 +11929,9 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
-      <c r="R205" t="inlineStr"/>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -11963,7 +11983,9 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
-      <c r="R206" t="inlineStr"/>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -12015,7 +12037,9 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
-      <c r="R207" t="inlineStr"/>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -12067,7 +12091,9 @@
       <c r="Q208" t="n">
         <v>1</v>
       </c>
-      <c r="R208" t="inlineStr"/>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -12119,7 +12145,9 @@
       <c r="Q209" t="n">
         <v>0</v>
       </c>
-      <c r="R209" t="inlineStr"/>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -12171,7 +12199,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
-      <c r="R210" t="inlineStr"/>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -12223,7 +12253,9 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
-      <c r="R211" t="inlineStr"/>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -12275,7 +12307,9 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
-      <c r="R212" t="inlineStr"/>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -12327,7 +12361,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
-      <c r="R213" t="inlineStr"/>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -12379,7 +12415,9 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
-      <c r="R214" t="inlineStr"/>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -12431,7 +12469,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
-      <c r="R215" t="inlineStr"/>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -12483,7 +12523,9 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
-      <c r="R216" t="inlineStr"/>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -12535,7 +12577,9 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
-      <c r="R217" t="inlineStr"/>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -12587,7 +12631,9 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
-      <c r="R218" t="inlineStr"/>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -12639,7 +12685,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
-      <c r="R219" t="inlineStr"/>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -12691,7 +12739,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
-      <c r="R220" t="inlineStr"/>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -12743,7 +12793,9 @@
       <c r="Q221" t="n">
         <v>0</v>
       </c>
-      <c r="R221" t="inlineStr"/>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -12795,7 +12847,9 @@
       <c r="Q222" t="n">
         <v>1</v>
       </c>
-      <c r="R222" t="inlineStr"/>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -12847,7 +12901,9 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
-      <c r="R223" t="inlineStr"/>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -12899,7 +12955,9 @@
       <c r="Q224" t="n">
         <v>2</v>
       </c>
-      <c r="R224" t="inlineStr"/>
+      <c r="R224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -12951,7 +13009,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
-      <c r="R225" t="inlineStr"/>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -13003,7 +13063,9 @@
       <c r="Q226" t="n">
         <v>0</v>
       </c>
-      <c r="R226" t="inlineStr"/>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -13055,7 +13117,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
-      <c r="R227" t="inlineStr"/>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -13107,7 +13171,9 @@
       <c r="Q228" t="n">
         <v>0</v>
       </c>
-      <c r="R228" t="inlineStr"/>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -13159,7 +13225,9 @@
       <c r="Q229" t="n">
         <v>0</v>
       </c>
-      <c r="R229" t="inlineStr"/>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -13211,7 +13279,477 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
-      <c r="R230" t="inlineStr"/>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B231" t="n">
+        <v>253.6999969482422</v>
+      </c>
+      <c r="C231" t="n">
+        <v>286.9500122070312</v>
+      </c>
+      <c r="D231" t="n">
+        <v>243.8000030517578</v>
+      </c>
+      <c r="E231" t="n">
+        <v>282.3500061035156</v>
+      </c>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="n">
+        <v>468273</v>
+      </c>
+      <c r="H231" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I231" t="n">
+        <v>3</v>
+      </c>
+      <c r="J231" t="n">
+        <v>3</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>10</v>
+      </c>
+      <c r="O231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B232" t="n">
+        <v>283</v>
+      </c>
+      <c r="C232" t="n">
+        <v>289</v>
+      </c>
+      <c r="D232" t="n">
+        <v>255.1000061035156</v>
+      </c>
+      <c r="E232" t="n">
+        <v>257.25</v>
+      </c>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="n">
+        <v>231010</v>
+      </c>
+      <c r="H232" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I232" t="n">
+        <v>3</v>
+      </c>
+      <c r="J232" t="n">
+        <v>10</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>11</v>
+      </c>
+      <c r="O232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B233" t="n">
+        <v>259.7999877929688</v>
+      </c>
+      <c r="C233" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="D233" t="n">
+        <v>248</v>
+      </c>
+      <c r="E233" t="n">
+        <v>285.2999877929688</v>
+      </c>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="n">
+        <v>1586634</v>
+      </c>
+      <c r="H233" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I233" t="n">
+        <v>3</v>
+      </c>
+      <c r="J233" t="n">
+        <v>17</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>12</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B234" t="n">
+        <v>292.3500061035156</v>
+      </c>
+      <c r="C234" t="n">
+        <v>294</v>
+      </c>
+      <c r="D234" t="n">
+        <v>266.6000061035156</v>
+      </c>
+      <c r="E234" t="n">
+        <v>269.5499877929688</v>
+      </c>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="n">
+        <v>805474</v>
+      </c>
+      <c r="H234" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I234" t="n">
+        <v>3</v>
+      </c>
+      <c r="J234" t="n">
+        <v>24</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>13</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B235" t="n">
+        <v>269.5499877929688</v>
+      </c>
+      <c r="C235" t="n">
+        <v>284</v>
+      </c>
+      <c r="D235" t="n">
+        <v>261.8999938964844</v>
+      </c>
+      <c r="E235" t="n">
+        <v>267</v>
+      </c>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="n">
+        <v>332401</v>
+      </c>
+      <c r="H235" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I235" t="n">
+        <v>3</v>
+      </c>
+      <c r="J235" t="n">
+        <v>31</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" t="n">
+        <v>14</v>
+      </c>
+      <c r="O235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B236" t="n">
+        <v>246.5500030517578</v>
+      </c>
+      <c r="C236" t="n">
+        <v>279.25</v>
+      </c>
+      <c r="D236" t="n">
+        <v>238.8999938964844</v>
+      </c>
+      <c r="E236" t="n">
+        <v>272.8999938964844</v>
+      </c>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="n">
+        <v>324301</v>
+      </c>
+      <c r="H236" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I236" t="n">
+        <v>4</v>
+      </c>
+      <c r="J236" t="n">
+        <v>7</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>15</v>
+      </c>
+      <c r="O236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B237" t="n">
+        <v>275.6000061035156</v>
+      </c>
+      <c r="C237" t="n">
+        <v>285.25</v>
+      </c>
+      <c r="D237" t="n">
+        <v>274</v>
+      </c>
+      <c r="E237" t="n">
+        <v>283.2999877929688</v>
+      </c>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="n">
+        <v>228344</v>
+      </c>
+      <c r="H237" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I237" t="n">
+        <v>4</v>
+      </c>
+      <c r="J237" t="n">
+        <v>14</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>16</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B238" t="n">
+        <v>284.7999877929688</v>
+      </c>
+      <c r="C238" t="n">
+        <v>290.3500061035156</v>
+      </c>
+      <c r="D238" t="n">
+        <v>262.1000061035156</v>
+      </c>
+      <c r="E238" t="n">
+        <v>272.5499877929688</v>
+      </c>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="n">
+        <v>462080</v>
+      </c>
+      <c r="H238" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I238" t="n">
+        <v>4</v>
+      </c>
+      <c r="J238" t="n">
+        <v>21</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>17</v>
+      </c>
+      <c r="O238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B239" t="n">
+        <v>271</v>
+      </c>
+      <c r="C239" t="n">
+        <v>275.7999877929688</v>
+      </c>
+      <c r="D239" t="n">
+        <v>254.3500061035156</v>
+      </c>
+      <c r="E239" t="n">
+        <v>255.6499938964844</v>
+      </c>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="n">
+        <v>202925</v>
+      </c>
+      <c r="H239" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I239" t="n">
+        <v>4</v>
+      </c>
+      <c r="J239" t="n">
+        <v>28</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>18</v>
+      </c>
+      <c r="O239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R239" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
